--- a/Final Project/chatdata_groups.xlsx
+++ b/Final Project/chatdata_groups.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECCC4DB-3016-5642-B0DD-75D5A70BDC4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A8C000-4895-2544-93A2-AAB3E4804620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="10000" windowHeight="7040" xr2:uid="{E4D510BD-06A2-2842-9134-5EF1208DD84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +42,13 @@
     <t>2 - Greeting + Checkback</t>
   </si>
   <si>
-    <t>3 - Time Greeting</t>
+    <t>3 - Ask Services</t>
   </si>
   <si>
-    <t>4 - Ask Services + Greeting</t>
+    <t>Used Hi for all injection words (Hey, Hi,..)</t>
   </si>
   <si>
-    <t>5 - Ask Services</t>
+    <t>Replaced usergreetings -&gt; Good Morning</t>
   </si>
 </sst>
 </file>
@@ -403,41 +403,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3F2E6-3937-8647-A848-F5A49CF5E1DC}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Project/chatdata_groups.xlsx
+++ b/Final Project/chatdata_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A8C000-4895-2544-93A2-AAB3E4804620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE1A0C-5678-3148-BAE5-8C938FA68889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="10000" windowHeight="7040" xr2:uid="{E4D510BD-06A2-2842-9134-5EF1208DD84E}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="12000" windowHeight="9720" xr2:uid="{E4D510BD-06A2-2842-9134-5EF1208DD84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1 - General Greeting</t>
   </si>
@@ -42,13 +42,22 @@
     <t>2 - Greeting + Checkback</t>
   </si>
   <si>
-    <t>3 - Ask Services</t>
-  </si>
-  <si>
     <t>Used Hi for all injection words (Hey, Hi,..)</t>
   </si>
   <si>
     <t>Replaced usergreetings -&gt; Good Morning</t>
+  </si>
+  <si>
+    <t>4 - Ask General Services</t>
+  </si>
+  <si>
+    <t>3 - Ask Available Services</t>
+  </si>
+  <si>
+    <t>Eg :- Hair cut, Colouring …</t>
+  </si>
+  <si>
+    <t>Eg:- All available services</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -428,16 +437,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>

--- a/Final Project/chatdata_groups.xlsx
+++ b/Final Project/chatdata_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE1A0C-5678-3148-BAE5-8C938FA68889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB524A1-AA4E-EA4C-A983-3DBD82F47E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="12000" windowHeight="9720" xr2:uid="{E4D510BD-06A2-2842-9134-5EF1208DD84E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1 - General Greeting</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Eg:- All available services</t>
+  </si>
+  <si>
+    <t>5 - Make Reservation</t>
+  </si>
+  <si>
+    <t>6 - Change Reservation</t>
+  </si>
+  <si>
+    <t>7 - Remove/Cancel  Reservation</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3F2E6-3937-8647-A848-F5A49CF5E1DC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +466,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Project/chatdata_groups.xlsx
+++ b/Final Project/chatdata_groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chathuranga/Desktop/Masters Lecture Docs/Text Mining 732A92 /Labs/Text Mining Labs/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB524A1-AA4E-EA4C-A983-3DBD82F47E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0B848-82DC-0F4B-8F89-2EDF35932776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="12000" windowHeight="9720" xr2:uid="{E4D510BD-06A2-2842-9134-5EF1208DD84E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1 - General Greeting</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>7 - Remove/Cancel  Reservation</t>
+  </si>
+  <si>
+    <t>8 - Close Chat / Close greeting</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA3F2E6-3937-8647-A848-F5A49CF5E1DC}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +483,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
